--- a/Code/Excel/StartMachineConfig@s.xlsx
+++ b/Code/Excel/StartMachineConfig@s.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Id</t>
   </si>
@@ -56,10 +56,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>172.23.71.224</t>
-  </si>
-  <si>
-    <t>8.138.192.113</t>
+    <t>127.0.0.1</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1062,7 @@
   <dimension ref="C3:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1127,7 +1124,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="5">
         <v>10000</v>
